--- a/Design Database/Design Examples Library/Circuit_information_list.xlsx
+++ b/Design Database/Design Examples Library/Circuit_information_list.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\madhu028\Documents\GitHub\ALIGN\Design Database\Design Examples Library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\madhu028\Documents\GitHub\2019-01-ALIGN\Design Database\Design Examples Library\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -62,33 +62,6 @@
     <t>Sl. No</t>
   </si>
   <si>
-    <t>DC/DC converters</t>
-  </si>
-  <si>
-    <t>I/O or Wireline</t>
-  </si>
-  <si>
-    <t>Radio Frequency</t>
-  </si>
-  <si>
-    <t>General/low frequency analog</t>
-  </si>
-  <si>
-    <t>G1</t>
-  </si>
-  <si>
-    <t>G2</t>
-  </si>
-  <si>
-    <t>DC1</t>
-  </si>
-  <si>
-    <t>IO1</t>
-  </si>
-  <si>
-    <t>RF1</t>
-  </si>
-  <si>
     <t>comparator (not clocked)</t>
   </si>
   <si>
@@ -107,16 +80,43 @@
     <t>charge pump (EnergyHarvesting/ChargePump)</t>
   </si>
   <si>
-    <t>G3</t>
-  </si>
-  <si>
     <t>comparator (clocked) (EnergyHarvesting/Comp)</t>
   </si>
   <si>
-    <t>G4</t>
-  </si>
-  <si>
     <t>non-overlapping clock (EnergyHarvesting/NON_OVLP3)</t>
+  </si>
+  <si>
+    <t>Analog</t>
+  </si>
+  <si>
+    <t>Power Management</t>
+  </si>
+  <si>
+    <t>Wireline</t>
+  </si>
+  <si>
+    <t>Wireless</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>PM1</t>
+  </si>
+  <si>
+    <t>WN1</t>
+  </si>
+  <si>
+    <t>WN2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -483,7 +483,7 @@
         <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E1" t="s">
         <v>9</v>
@@ -507,21 +507,21 @@
         <v>5</v>
       </c>
       <c r="L1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -530,13 +530,13 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
@@ -545,16 +545,16 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B5" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="G5" s="1"/>
       <c r="I5" s="1"/>
@@ -562,16 +562,16 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B6" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="G6" s="1"/>
       <c r="I6" s="1"/>
@@ -579,19 +579,19 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="G8" s="1"/>
       <c r="I8" s="1"/>
@@ -599,18 +599,18 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
